--- a/app/2025-04-28_Hot_Buys_Coupons.xlsx
+++ b/app/2025-04-28_Hot_Buys_Coupons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-12 12:11:55.647</t>
+          <t>2025-05-13 16:46:12.872</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -511,10 +511,14 @@
           <t>2025-03-28 00:00:00</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>i May:</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>Po x ; LS NI - .—~</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -536,7 +540,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-12 12:11:55.941</t>
+          <t>2025-05-13 16:46:14.542</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -549,16 +553,24 @@
           <t>2025-03-28 00:00:00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>STARTS</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>&amp;</t>
+          <t>TOMORROW, 3/29/25! I NEW a, IN-WAREHOUSE Se =&gt;. + HOT BUYS am _— Valid 3/29/25 - 4/6/25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>In-Warehouse</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>March 29th through April 6th</t>
@@ -567,14 +579,14 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://www.costcoinsider.com/wp-content/themes/Selin5.4/images/user.png</t>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Cover.jpg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-12 12:11:57.364</t>
+          <t>2025-05-13 16:46:15.945</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -589,12 +601,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>STARTS</t>
+          <t>SunVilla</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>STARTS TOMORROW, 3/29/25! |  NEW</t>
+          <t>ee Fis 9 PS ae ms . ee Wi In-Warehouse + Online In-Warehouse + Online In-Warehouse + Online Charmin Ula Soft Bath Yardistry I2' x I4 Gazebo wath —_-SunVilla Nichols 7-Piece Sling Tissue. 2-Ply. 2I3 Sheets, 2O ‘Aluminum Roo! Outdoor Dining Set Rolls $3OO OFF $99.O9 S8OrF Lin's Pesevateen Ak, rank After $2OO OFF PRIMAVERA or, MISTURA Ty as, i a wa he Br si 2 rae Be 3 ate i 4 SSE In-Warehouse + Online In-Warehouse + Online Warehouse-Only Dyson Cyclone VIO Animal + Wonderful Pistachios, Salt and PuraVida Fire Roasted Cordless Vacuum Cleaner Pepper Primavera Mistura $IOO OFF ‘ ie La S4OFF S4OFF</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -602,7 +614,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>In-Warehouse</t>
+          <t>In-Warehouse + Online</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -613,14 +625,14 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Cover.jpg</t>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-1-635x646.jpg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-12 12:11:57.792</t>
+          <t>2025-05-13 16:46:16.697</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -633,22 +645,18 @@
           <t>2025-03-28 00:00:00</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GARLIC BUTTER</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ee               Fis 9</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$300 OFF</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
+          <t>SHRIMP — ‘ as I3] hex + \ Warehouse-Only Warehouse-Only Warehouse-Only Emy Appees Kisiang Sgnative Gale scacrcombe 8O9 " Suter Serene pay sort Sher $IO OFF en. ewes - a Bian: O a QATERLgg, A. ve? jeg = “Wee, a gf I i i aim 7 “oe P, In-Warehouse + Online Warehouse-Only In-Warehouse + Online Sugar Bow! Bakery Paliero Walton Sparking Wale fed But rgiral ANDSOR ‘ vara ck Sagar Fro Erogy Dee S3OFF 6 I wa at PR Limi I9. Price var es 9 AK HI ana PR “ume 2 Ec, Pace vanag.in AK and HI</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
@@ -660,21 +668,17 @@
           <t>March 29th through April 6th</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>$99.09</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-1-635x646.jpg</t>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-2-635x631.jpg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-12 12:11:58.173</t>
+          <t>2025-05-13 16:46:17.161</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -689,16 +693,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GARLIC</t>
+          <t>ic r</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GARLIC BUTTER                 ~ ~~   :</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>ic r ORGANIC RAW KOMBUCHA BOULDER . I y : E causestee ‘ sa sncrate et ant Ey ay os Ey cs 2O% mone meu 6. Warehouse-Only In-Warebouse + Online Warehouse-Only Boulder Canyon Avocado On Delsey Panis Accelerate 2 Brew Dr Orgarve Raw Classic Sea Sal Chips Prece Hardside Spinner Komnbucha, Variety Pock Luggage Set see $I.7O OFF $I39.99 SAOFF Pree vares.n Ak. Marg PR ‘fear $4O, OFF Pree aes “AK Hand PR tint o . - sonies 7 3) uy gr” ron &amp; ied “as eeeeMearBats I FLEX TREME cimamon a ‘ I Rolls —yY _ a nr —_ 8 in oe - an Warehouse-Only In-Warehouse + Online Warehouse-Only Mama Mancin's Jumbo Beet —_‘Flexon 5/8" x IOO' Contractor ——_Aie's Organe Cinaamon Meatballs Grade Hose with Guard and Rolls - Grip : $2.5O OFF $22.98 $4.5O OFF After</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>$5 OFF</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
@@ -710,17 +722,21 @@
           <t>March 29th through April 6th</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>$22.98</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-2-635x631.jpg</t>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-3-635x646.jpg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-12 12:11:59.902</t>
+          <t>2025-05-13 16:46:17.161</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -733,20 +749,24 @@
           <t>2025-03-28 00:00:00</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$5 OFF</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ic                                   r              ORGANIC RAW KOMBUCHA</t>
+          <t>Prego AK Hg HE mt IO,</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$1.70 OFF</t>
+          <t>$5 OFF</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -762,7 +782,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>$1.70</t>
+          <t>$22.98</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -774,7 +794,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:00.605</t>
+          <t>2025-05-13 16:46:17.863</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -787,38 +807,34 @@
           <t>2025-03-28 00:00:00</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>co pach</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>co              pach @                  on                         S</t>
+          <t>co pach @ on S oF pec "Z — oe: ‘ne ved ct sOror ct ($3.5O OFF Gani IO Prien vars ir AK I4 ‘$IO OFF $3.5O OFF Lint 2 Price wares on AK aed and PR mit 6. Price varies in Hl. Umit 2 Price vanes in AK and HW = Liquid Dish Scap Seamtess Sports Bra with Stainless Steel Wand inch) - Apple M4 chip, $2.5O OFF $IO.99 ‘After</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$3.50 OFF</t>
+          <t>$4 OFF</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Limit 10</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>March 29th through April 6th</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>$3.50</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-4-635x602.jpg</t>
@@ -828,7 +844,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:01.337</t>
+          <t>2025-05-13 16:46:17.863</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -843,21 +859,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Pe</t>
+          <t>$4 OFF</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pe</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>While Supplies Last</t>
-        </is>
-      </c>
+          <t>Inteltigence. I6GB Limits After</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>$4 OFF</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
@@ -867,14 +887,14 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-5-635x657.jpg</t>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-4-635x602.jpg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:01.490</t>
+          <t>2025-05-13 16:46:17.863</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -889,16 +909,24 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fal</t>
+          <t>$3 OFF</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fal</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+          <t>Memory. 5I268 SSD. Limit IO. Price varies in AK, Ht ‘Storage and PR $I,399.99 ‘After $I5O OFF</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>$4 OFF</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
@@ -909,45 +937,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://www.costcoinsider.com/wp-content/themes/Selin5.4/images/folder.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-05-12 12:12:02.310</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Costco April 2025 Hot Buys Coupons</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2025-03-28 00:00:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>‘&gt;</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>March 29th through April 6th</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>https://www.costcoinsider.com/wp-content/themes/Selin5.4/images/tag.png</t>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-4-635x602.jpg</t>
         </is>
       </c>
     </row>

--- a/app/2025-04-28_Hot_Buys_Coupons.xlsx
+++ b/app/2025-04-28_Hot_Buys_Coupons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:12.872</t>
+          <t>2025-05-14 16:28:47.348</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -513,12 +513,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>i May:</t>
+          <t>STARTS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Po x ; LS NI - .—~</t>
+          <t>TOMORROW 7, AR</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -533,14 +533,14 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://www.costcoinsider.com/wp-content/themes/Selin5.4/images/Costco-Insider4.png</t>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Cover.jpg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:14.542</t>
+          <t>2025-05-14 16:28:47.508</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -553,24 +553,16 @@
           <t>2025-03-28 00:00:00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>STARTS</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TOMORROW, 3/29/25! I NEW a, IN-WAREHOUSE Se =&gt;. + HOT BUYS am _— Valid 3/29/25 - 4/6/25</t>
+          <t>y . IN-WAR Lif</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>In-Warehouse</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>March 29th through April 6th</t>
@@ -586,7 +578,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:15.945</t>
+          <t>2025-05-14 16:28:47.610</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -599,24 +591,16 @@
           <t>2025-03-28 00:00:00</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SunVilla</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ee Fis 9 PS ae ms . ee Wi In-Warehouse + Online In-Warehouse + Online In-Warehouse + Online Charmin Ula Soft Bath Yardistry I2' x I4 Gazebo wath —_-SunVilla Nichols 7-Piece Sling Tissue. 2-Ply. 2I3 Sheets, 2O ‘Aluminum Roo! Outdoor Dining Set Rolls $3OO OFF $99.O9 S8OrF Lin's Pesevateen Ak, rank After $2OO OFF PRIMAVERA or, MISTURA Ty as, i a wa he Br si 2 rae Be 3 ate i 4 SSE In-Warehouse + Online In-Warehouse + Online Warehouse-Only Dyson Cyclone VIO Animal + Wonderful Pistachios, Salt and PuraVida Fire Roasted Cordless Vacuum Cleaner Pepper Primavera Mistura $IOO OFF ‘ ie La S4OFF S4OFF</t>
+          <t>EHOUSE Beinse</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>In-Warehouse + Online</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>March 29th through April 6th</t>
@@ -625,14 +609,14 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-1-635x646.jpg</t>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Cover.jpg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:16.697</t>
+          <t>2025-05-14 16:28:47.870</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -645,24 +629,16 @@
           <t>2025-03-28 00:00:00</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GARLIC BUTTER</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SHRIMP — ‘ as I3] hex + \ Warehouse-Only Warehouse-Only Warehouse-Only Emy Appees Kisiang Sgnative Gale scacrcombe 8O9 " Suter Serene pay sort Sher $IO OFF en. ewes - a Bian: O a QATERLgg, A. ve? jeg = “Wee, a gf I i i aim 7 “oe P, In-Warehouse + Online Warehouse-Only In-Warehouse + Online Sugar Bow! Bakery Paliero Walton Sparking Wale fed But rgiral ANDSOR ‘ vara ck Sagar Fro Erogy Dee S3OFF 6 I wa at PR Limi I9. Price var es 9 AK HI ana PR “ume 2 Ec, Pace vanag.in AK and HI</t>
+          <t>iw &amp; Valid 3/2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>In-Warehouse + Online</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>March 29th through April 6th</t>
@@ -671,14 +647,14 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-2-635x631.jpg</t>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Cover.jpg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:17.161</t>
+          <t>2025-05-14 16:28:47.992</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -691,52 +667,32 @@
           <t>2025-03-28 00:00:00</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ic r</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ic r ORGANIC RAW KOMBUCHA BOULDER . I y : E causestee ‘ sa sncrate et ant Ey ay os Ey cs 2O% mone meu 6. Warehouse-Only In-Warebouse + Online Warehouse-Only Boulder Canyon Avocado On Delsey Panis Accelerate 2 Brew Dr Orgarve Raw Classic Sea Sal Chips Prece Hardside Spinner Komnbucha, Variety Pock Luggage Set see $I.7O OFF $I39.99 SAOFF Pree vares.n Ak. Marg PR ‘fear $4O, OFF Pree aes “AK Hand PR tint o . - sonies 7 3) uy gr” ron &amp; ied “as eeeeMearBats I FLEX TREME cimamon a ‘ I Rolls —yY _ a nr —_ 8 in oe - an Warehouse-Only In-Warehouse + Online Warehouse-Only Mama Mancin's Jumbo Beet —_‘Flexon 5/8" x IOO' Contractor ——_Aie's Organe Cinaamon Meatballs Grade Hose with Guard and Rolls - Grip : $2.5O OFF $22.98 $4.5O OFF After</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$5 OFF</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>ww Ew 9/25 - 4/6/25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>In-Warehouse + Online</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>March 29th through April 6th</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>$22.98</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-3-635x646.jpg</t>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Cover.jpg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:17.161</t>
+          <t>2025-05-14 16:28:48.538</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -749,26 +705,14 @@
           <t>2025-03-28 00:00:00</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$5 OFF</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Prego AK Hg HE mt IO,</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$5 OFF</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>a fey Oras In-Warehouse + Online CGharrnin Utra Sof Bath Tissue. 2-Ph,. 2I3 Sheets, 3O Ralls</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
@@ -780,21 +724,17 @@
           <t>March 29th through April 6th</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>$22.98</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-3-635x646.jpg</t>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-1-635x646.jpg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:17.863</t>
+          <t>2025-05-14 16:28:48.642</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -809,26 +749,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>co pach</t>
+          <t>In-Warehouse</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>co pach @ on S oF pec "Z — oe: ‘ne ved ct sOror ct ($3.5O OFF Gani IO Prien vars ir AK I4 ‘$IO OFF $3.5O OFF Lint 2 Price wares on AK aed and PR mit 6. Price varies in Hl. Umit 2 Price vanes in AK and HW = Liquid Dish Scap Seamtess Sports Bra with Stainless Steel Wand inch) - Apple M4 chip, $2.5O OFF $IO.99 ‘After</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$4 OFF</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>Online Yardistry I2' x 34 Gazebo with ‘Aluminum Root $2OO OFF Lim's Bese vanes m AK, eh and #8</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>In-Warehouse + Online</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>March 29th through April 6th</t>
@@ -837,14 +773,14 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-4-635x602.jpg</t>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-1-635x646.jpg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:17.863</t>
+          <t>2025-05-14 16:28:48.739</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -859,42 +795,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$4 OFF</t>
+          <t>In-Warehouse</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inteltigence. I6GB Limits After</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$4 OFF</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>Online ‘Sunvilla Nichols 7-Piece Sling ‘Outdoor Dining Set $999.99 Atter $2OO OFF</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>In-Warehouse + Online</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>March 29th through April 6th</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>$999.99</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-4-635x602.jpg</t>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-1-635x646.jpg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-13 16:46:17.863</t>
+          <t>2025-05-14 16:28:48.834</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -909,26 +845,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$3 OFF</t>
+          <t>In-Warehouse</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Memory. 5I268 SSD. Limit IO. Price varies in AK, Ht ‘Storage and PR $I,399.99 ‘After $I5O OFF</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$4 OFF</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>Online Dyson Cyclone VIO Animal + Cordless Vacuum Cleaner $IOO OFF</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>In-Warehouse + Online</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>March 29th through April 6th</t>
@@ -937,7 +869,1219 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-1-635x646.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:48.943</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>eo n % 2 In-Warehouse + Online Wonderul Pistachios, Salt and Pepper ‘$4.OFF</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>In-Warehouse + Online</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-1-635x646.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:49.056</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PRIMAVERA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MISTURA avs, # 5 Se, rae a) 2 eT Warehouse-Only Puravida Fie Roasted Primavera Mistura S4OFF</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>In-Warehouse</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-1-635x646.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:49.641</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Warehouse-Only Envy Apples S2OFF Selector was ay legaton Pree</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>In-Warehouse</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-2-635x631.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:49.756</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GARLIC</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>BUTTER SHRIMP — as i Cy cal Warehouse-Only Kikiand Signa Gave Butter Shem SSOFF</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>In-Warehouse</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-2-635x631.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:49.866</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Jae</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>re thax + aya Lae L Warehouse-Only Beachcomber Sag ‘$29.99 Atter $IO OFF</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>In-Warehouse</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>$29.99</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-2-635x631.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:50.004</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ei. ewes ’ : FF ‘ og he ; HA ¢- ve? i Bk; Vahnies YS! ; 3] Vea x y\feoeiy &gt; my a In-Warehouse + Online Sugar Bow! Bakery Paris ‘SO. OFF</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>In-Warehouse + Online</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-2-635x631.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:50.110</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>9 fATERLog a Wiens Warehouse-Only Waterloo Sparing Water Variety Peck 82.5OO8</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>In-Warehouse</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-2-635x631.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:50.209</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>m_-, j : (3 _ - , ii i In-Warehouse + Online SaOFF</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>In-Warehouse + Online</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-2-635x631.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:50.901</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>BOULDER AVOCANO OIL cuss te sat « Warehouse-Only Boulder Canyan Avocado Oi Classic Sea Sall Chips $I.7O OFF Prce vares-n AK. Hara PR</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>In-Warehouse</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-3-635x646.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:51.005</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>In-Warehouse</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Online Delsey Paris Accelerate 2 Piece Hardside Spinner Luggage Set $I39.99 Attar $4O OFF mt I</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>In-Warehouse + Online</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-3-635x646.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:51.113</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ORGANIC</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>RAW KOMBUCHA REHTOR DREW OR. OREM BR * “s Warehouse-Only, Brew Dr Organ aw Kombucha vanety Pack</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>In-Warehouse</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-3-635x646.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:51.217</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>aug” Geer MEATBALS 4 Warehouse-Only Mama Mancini's Jumbo Beet Meatballs $3.5O OFF</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>In-Warehouse</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-3-635x646.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:51.330</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>I FLEX TREME 2 © a, ion se 4 In-Warehouse + Online Flexon 5/8" x IOO' Contractor Grade Hose with Guard and Grip $22.98 After</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>In-Warehouse + Online</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>$22.98</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-3-635x646.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:51.330</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5 OFF nt IO</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>$5 OFF</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-3-635x646.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:51.452</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>sonic; 74 3) ad ae g Cinnamon fyr Zw Rolls —I . 2 Warehouse-Only Annie's Organve Cinnamon Ralls ‘$4.5O OFF</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>In-Warehouse</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-3-635x646.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:52.011</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>COSEQUIN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>EH, oF 2B Navamax Coscain Jom! Hessen Neath Gerpinert tor Bane eta Bel ‘$IO OFF $35OO</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
           <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-4-635x602.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:52.132</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>la on . Smne vtey Oa Hcten ey Pa Se Secenre ie at ($3.5O OFF Ice varios n AK and Ht</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-4-635x602.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:52.240</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Online Warehouse-Only ch Dry Kraft Grated Parmesan SSOFF (Gan IO Prac wang AK, HL ak ny SPR</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>In-Warehouse + Online</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-4-635x602.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:52.341</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>a In-Warehouse + Online (n-Ware Palmolive Ultra Strength PUMA. Liquid Dish Soap Seams: too az Prk $2.5O OFF $IO.9O Lima After $3 Lm IO. ‘snd</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>In-Warehouse + Online</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-4-635x602.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:52.462</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Sams</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>house + Online In-Warehouse + vomen's Orbit 3-Piece No. 2 Spore Bra with Starloss St $I5.O9 Aftor</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>In-Warehouse + Online</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-4-635x602.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:52.462</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4 OFF OFF</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>$4 OFF</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-4-635x602.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:52.577</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>In-Warehouse + Online zle Set MacBook Pro haptop (I4- el Wand inch) - Apple Md chip. Built for Apple Intoligence. I6GB Memory, 5I268 SSD Storage $I,999.OO After $I5O OFF tant</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>In-Warehouse + Online</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-4-635x602.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:53.212</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>a J ret ee: RCTS thay oa BOOK WITH COSTCO TRAVEL Resort &amp; Spa, Ka'anapali Intute ta Vale: 8725 - oes</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-5-635x657.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:53.333</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ne NORWEGIAN: : = * See Lath ae I I BOOK WITH COSTCO TRAVEL Norwegian Cruse Line Deal Complimentary Dally Gratuities Digital Costeo Shop Card</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-5-635x657.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:53.451</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Ms</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>PARADISUS ad i" Be Ve reg ame nas BOOK WITH COSTCO TRAVEL Menco:A-incuswe Reser Packages ‘$2OO Instant Savings</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-5-635x657.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:53.579</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Stays</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ay — ' a $25O OFF</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-5-635x657.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:53.694</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Hot Buys wa BY =" eS SQOFF SGOF White Suppiles Last</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-5-635x657.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:28:53.794</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Costco April 2025 Hot Buys Coupons</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Cn</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>F $35OOFF</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>March 29th through April 6th</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-5-635x657.jpg</t>
         </is>
       </c>
     </row>

--- a/app/2025-04-28_Hot_Buys_Coupons.xlsx
+++ b/app/2025-04-28_Hot_Buys_Coupons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:47.348</t>
+          <t>2025-05-15 08:14:49.431</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:47.508</t>
+          <t>2025-05-15 08:14:49.592</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:47.610</t>
+          <t>2025-05-15 08:14:49.698</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:47.870</t>
+          <t>2025-05-15 08:14:49.958</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -654,7 +654,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:47.992</t>
+          <t>2025-05-15 08:14:50.048</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -692,7 +692,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:48.538</t>
+          <t>2025-05-15 08:14:51.257</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -708,7 +708,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>a fey Oras In-Warehouse + Online CGharrnin Utra Sof Bath Tissue. 2-Ph,. 2I3 Sheets, 3O Ralls</t>
+          <t>a fey Oras In-Warehouse + Online CGharrnin Utra Sof Bath Tissue. 2-Ph,. 2I3 Sheets, 3O Ralls ‘S6 OFF</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -734,7 +734,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:48.642</t>
+          <t>2025-05-15 08:14:51.350</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Online Yardistry I2' x 34 Gazebo with ‘Aluminum Root $2OO OFF Lim's Bese vanes m AK, eh and #8</t>
+          <t>Online Yardistry I2' x 34 Gazebo with ‘Aluminum Root S2OO OFF Lim's Bese vanes m AK, eh and #8</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -780,7 +780,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:48.739</t>
+          <t>2025-05-15 08:14:51.462</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Online ‘Sunvilla Nichols 7-Piece Sling ‘Outdoor Dining Set $999.99 Atter $2OO OFF</t>
+          <t>Online ‘Sunvilla Nichols 7-Piece Sling ‘Outdoor Dining Set S999.99 Atter S2OO OFF</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -816,11 +816,7 @@
           <t>March 29th through April 6th</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>$999.99</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-1-635x646.jpg</t>
@@ -830,7 +826,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:48.834</t>
+          <t>2025-05-15 08:14:51.552</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -850,7 +846,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Online Dyson Cyclone VIO Animal + Cordless Vacuum Cleaner $IOO OFF</t>
+          <t>Online Dyson Cyclone VIO Animal + Cordless Vacuum Cleaner SIOO OFF</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -876,7 +872,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:48.943</t>
+          <t>2025-05-15 08:14:51.648</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -892,7 +888,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>eo n % 2 In-Warehouse + Online Wonderul Pistachios, Salt and Pepper ‘$4.OFF</t>
+          <t>eo n % 2 In-Warehouse + Online Wonderul Pistachios, Salt and Pepper ‘S4.OFF</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -918,7 +914,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:49.056</t>
+          <t>2025-05-15 08:14:51.758</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -964,7 +960,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:49.641</t>
+          <t>2025-05-15 08:14:52.589</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1006,7 +1002,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:49.756</t>
+          <t>2025-05-15 08:14:52.699</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1052,7 +1048,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:49.866</t>
+          <t>2025-05-15 08:14:52.809</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1072,7 +1068,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>re thax + aya Lae L Warehouse-Only Beachcomber Sag ‘$29.99 Atter $IO OFF</t>
+          <t>re thax + aya Lae L Warehouse-Only Beachcomber Sag ‘S29.99 Atter SIO OFF</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1088,11 +1084,7 @@
           <t>March 29th through April 6th</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>$29.99</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-2-635x631.jpg</t>
@@ -1102,7 +1094,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:50.004</t>
+          <t>2025-05-15 08:14:52.935</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1144,7 +1136,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:50.110</t>
+          <t>2025-05-15 08:14:53.048</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1186,7 +1178,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:50.209</t>
+          <t>2025-05-15 08:14:53.136</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1228,7 +1220,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:50.901</t>
+          <t>2025-05-15 08:14:54.641</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1244,7 +1236,7 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BOULDER AVOCANO OIL cuss te sat « Warehouse-Only Boulder Canyan Avocado Oi Classic Sea Sall Chips $I.7O OFF Prce vares-n AK. Hara PR</t>
+          <t>BOULDER AVOCANO OIL cuss te sat « Warehouse-Only Boulder Canyan Avocado Oi Classic Sea Sall Chips SI.7O OFF Prce vares-n AK. Hara PR</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1270,7 +1262,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:51.005</t>
+          <t>2025-05-15 08:14:54.751</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1290,7 +1282,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Online Delsey Paris Accelerate 2 Piece Hardside Spinner Luggage Set $I39.99 Attar $4O OFF mt I</t>
+          <t>Online Delsey Paris Accelerate 2 Piece Hardside Spinner Luggage Set SI39.99 Attar S4O OFF mt I</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1316,7 +1308,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:51.113</t>
+          <t>2025-05-15 08:14:54.861</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1336,7 +1328,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>RAW KOMBUCHA REHTOR DREW OR. OREM BR * “s Warehouse-Only, Brew Dr Organ aw Kombucha vanety Pack</t>
+          <t>RAW KOMBUCHA REHTOR DREW OR. OREM BR * “s Warehouse-Only, Brew Dr Organ aw Kombucha vanety Pack S4 OFF</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1362,7 +1354,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:51.217</t>
+          <t>2025-05-15 08:14:54.955</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1378,7 +1370,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>aug” Geer MEATBALS 4 Warehouse-Only Mama Mancini's Jumbo Beet Meatballs $3.5O OFF</t>
+          <t>aug” Geer MEATBALS 4 Warehouse-Only Mama Mancini's Jumbo Beet Meatballs S3.5O OFF</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1404,7 +1396,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:51.330</t>
+          <t>2025-05-15 08:14:55.084</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1420,7 +1412,7 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>I FLEX TREME 2 © a, ion se 4 In-Warehouse + Online Flexon 5/8" x IOO' Contractor Grade Hose with Guard and Grip $22.98 After</t>
+          <t>I FLEX TREME 2 © a, ion se 4 In-Warehouse + Online Flexon 5/8" x IOO' Contractor Grade Hose with Guard and Grip S22.98 After S5 OFF nt IO</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1436,11 +1428,7 @@
           <t>March 29th through April 6th</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>$22.98</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-3-635x646.jpg</t>
@@ -1450,7 +1438,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:51.330</t>
+          <t>2025-05-15 08:14:55.206</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1466,21 +1454,17 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5 OFF nt IO</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$5 OFF</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>sonic; 74 3) ad ae g Cinnamon fyr Zw Rolls —I . 2 Warehouse-Only Annie's Organve Cinnamon Ralls ‘S4.5O OFF</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>In-Warehouse</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>March 29th through April 6th</t>
@@ -1496,7 +1480,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:51.452</t>
+          <t>2025-05-15 08:14:56.360</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1509,20 +1493,20 @@
           <t>2025-03-28 00:00:00</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>COSEQUIN</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sonic; 74 3) ad ae g Cinnamon fyr Zw Rolls —I . 2 Warehouse-Only Annie's Organve Cinnamon Ralls ‘$4.5O OFF</t>
+          <t>EH, oF 2B Navamax Coscain Jom! Hessen Neath Gerpinert tor Bane eta Bel ‘SIO OFF S35OO</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>In-Warehouse</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
           <t>March 29th through April 6th</t>
@@ -1531,14 +1515,14 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-3-635x646.jpg</t>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-4-635x602.jpg</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:52.011</t>
+          <t>2025-05-15 08:14:56.471</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1551,14 +1535,10 @@
           <t>2025-03-28 00:00:00</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>COSEQUIN</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EH, oF 2B Navamax Coscain Jom! Hessen Neath Gerpinert tor Bane eta Bel ‘$IO OFF $35OO</t>
+          <t>la on . Smne vtey Oa Hcten ey Pa Se Secenre ie at (S3.5O OFF Ice varios n AK and Ht</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1580,7 +1560,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:52.132</t>
+          <t>2025-05-15 08:14:56.584</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1593,16 +1573,24 @@
           <t>2025-03-28 00:00:00</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>la on . Smne vtey Oa Hcten ey Pa Se Secenre ie at ($3.5O OFF Ice varios n AK and Ht</t>
+          <t>Online Warehouse-Only ch Dry Kraft Grated Parmesan SSOFF (Gan IO Prac wang AK, HL ak ny SPR</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>In-Warehouse + Online</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>March 29th through April 6th</t>
@@ -1618,7 +1606,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:52.240</t>
+          <t>2025-05-15 08:14:56.690</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1631,14 +1619,10 @@
           <t>2025-03-28 00:00:00</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Online Warehouse-Only ch Dry Kraft Grated Parmesan SSOFF (Gan IO Prac wang AK, HL ak ny SPR</t>
+          <t>a In-Warehouse + Online (n-Ware Palmolive Ultra Strength PUMA. Liquid Dish Soap Seams: too az Prk S2.5O OFF SIO.9O Lima After S3 Lm IO. ‘snd</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1664,7 +1648,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:52.341</t>
+          <t>2025-05-15 08:14:56.800</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1677,10 +1661,14 @@
           <t>2025-03-28 00:00:00</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sams</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>a In-Warehouse + Online (n-Ware Palmolive Ultra Strength PUMA. Liquid Dish Soap Seams: too az Prk $2.5O OFF $IO.9O Lima After $3 Lm IO. ‘snd</t>
+          <t>house + Online In-Warehouse + vomen's Orbit 3-Piece No. 2 Spore Bra with Starloss St SI5.O9 Aftor S4 OFF OFF</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1706,7 +1694,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:52.462</t>
+          <t>2025-05-15 08:14:56.916</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1721,12 +1709,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sams</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>house + Online In-Warehouse + vomen's Orbit 3-Piece No. 2 Spore Bra with Starloss St $I5.O9 Aftor</t>
+          <t>In-Warehouse + Online zle Set MacBook Pro haptop (I4- el Wand inch) - Apple Md chip. Built for Apple Intoligence. I6GB Memory, 5I268 SSD Storage SI,999.OO After SI5O OFF tant</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1752,7 +1740,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:52.462</t>
+          <t>2025-05-15 08:14:58.217</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1768,19 +1756,11 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4 OFF OFF</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>$4 OFF</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>a J ret ee: RCTS thay oa BOOK WITH COSTCO TRAVEL Resort &amp; Spa, Ka'anapali Intute ta Vale: 8725 - oes</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
@@ -1791,14 +1771,14 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-4-635x602.jpg</t>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-5-635x657.jpg</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:52.577</t>
+          <t>2025-05-15 08:14:58.331</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1811,24 +1791,16 @@
           <t>2025-03-28 00:00:00</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Online</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>In-Warehouse + Online zle Set MacBook Pro haptop (I4- el Wand inch) - Apple Md chip. Built for Apple Intoligence. I6GB Memory, 5I268 SSD Storage $I,999.OO After $I5O OFF tant</t>
+          <t>ne NORWEGIAN: : = * See Lath ae I I BOOK WITH COSTCO TRAVEL Norwegian Cruse Line Deal Complimentary Dally Gratuities Digital Costeo Shop Card</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>In-Warehouse + Online</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
           <t>March 29th through April 6th</t>
@@ -1837,14 +1809,14 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-4-635x602.jpg</t>
+          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-5-635x657.jpg</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:53.212</t>
+          <t>2025-05-15 08:14:58.463</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1857,10 +1829,14 @@
           <t>2025-03-28 00:00:00</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Ms</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>a J ret ee: RCTS thay oa BOOK WITH COSTCO TRAVEL Resort &amp; Spa, Ka'anapali Intute ta Vale: 8725 - oes</t>
+          <t>PARADISUS ad i" Be Ve reg ame nas BOOK WITH COSTCO TRAVEL Menco:A-incuswe Reser Packages ‘S2OO Instant Savings</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -1882,7 +1858,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:53.333</t>
+          <t>2025-05-15 08:14:58.551</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1895,10 +1871,14 @@
           <t>2025-03-28 00:00:00</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Stays</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ne NORWEGIAN: : = * See Lath ae I I BOOK WITH COSTCO TRAVEL Norwegian Cruse Line Deal Complimentary Dally Gratuities Digital Costeo Shop Card</t>
+          <t>ay — ' a S25O OFF</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1920,7 +1900,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:53.451</t>
+          <t>2025-05-15 08:14:58.661</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1935,12 +1915,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ms</t>
+          <t>Pharmacy</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PARADISUS ad i" Be Ve reg ame nas BOOK WITH COSTCO TRAVEL Menco:A-incuswe Reser Packages ‘$2OO Instant Savings</t>
+          <t>Hot Buys wa BY =" eS SQOFF SGOF White Suppiles Last</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1962,7 +1942,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-05-14 16:28:53.579</t>
+          <t>2025-05-15 08:14:58.740</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1977,12 +1957,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Stays</t>
+          <t>Cn</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ay — ' a $25O OFF</t>
+          <t>F S35OOFF</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2001,90 +1981,6 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-05-14 16:28:53.694</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Costco April 2025 Hot Buys Coupons</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2025-03-28 00:00:00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Pharmacy</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Hot Buys wa BY =" eS SQOFF SGOF White Suppiles Last</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>March 29th through April 6th</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-5-635x657.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-05-14 16:28:53.794</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Costco April 2025 Hot Buys Coupons</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2025-03-28 00:00:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Cn</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>F $35OOFF</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>March 29th through April 6th</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>https://www.costcoinsider.com/wp-content/uploads/2025/03/Costco-April-2025-Hot-Buys-Coupons-Page-5-635x657.jpg</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
